--- a/users.xlsx
+++ b/users.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28926"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swathi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC76BCBC-AC6F-46E5-BEFB-D18CF3CF253F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6D879A-B308-4B57-A747-7DBEE17452B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{179A5CA7-6924-45EA-B1DE-DE7EBF6FE7EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,96 +36,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Prenom</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Leanne Graham</t>
-  </si>
-  <si>
-    <t>Sincere@april.biz</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Ervin Howell</t>
-  </si>
-  <si>
-    <t>Shanna@melissa.tv</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Tamilnadu</t>
-  </si>
-  <si>
-    <t>Katrnataka</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nathan@yesenia.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Clementine Bauch</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patricia Lebsack</t>
-  </si>
-  <si>
-    <t>Julianne.OConner@kory.org</t>
-  </si>
-  <si>
-    <t>Lucio_Hettinger@annie.ca</t>
-  </si>
-  <si>
-    <t>Chelsey Dietrich</t>
-  </si>
-  <si>
-    <t>Dennis Schulist</t>
-  </si>
-  <si>
-    <t>Karley_Dach@jasper.info</t>
-  </si>
-  <si>
-    <t>Kurtis Weissnat</t>
-  </si>
-  <si>
-    <t>Telly.Hoeger@billy.biz</t>
-  </si>
-  <si>
-    <t>Nicholas Runolfsdottir V</t>
-  </si>
-  <si>
-    <t>Sherwood@rosamond.me</t>
-  </si>
-  <si>
-    <t>Glenna Reichert</t>
-  </si>
-  <si>
-    <t>Chaim_McDermott@dana.io</t>
-  </si>
-  <si>
-    <t>Clementina DuBuque</t>
-  </si>
-  <si>
-    <t>Rey.Padberg@karina.biz</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Id</t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -188,7 +165,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,212 +478,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA1E776-E3A4-44F5-B735-11407C671A82}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>8989898956</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>9729898956</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>7982898956</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>8889898956</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>6289898956</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
-        <v>7389898956</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
-        <v>9389898956</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>8589898956</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>8689898956</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>8879898956</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{14BD3672-AA6B-41FA-9926-155A6291234B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>